--- a/海航地服业务统计表.xlsx
+++ b/海航地服业务统计表.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>统计时间2019年01月01日 至 09月18日</t>
+          <t>统计时间2019年01月01日 至 09月19日</t>
         </is>
       </c>
     </row>
@@ -475,17 +475,17 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>09月15日</t>
+          <t>09月16日</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>09月16日</t>
+          <t>09月17日</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>09月17日</t>
+          <t>09月18日</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>390</v>
+        <v>522</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>522</v>
+        <v>384</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>384</v>
+        <v>265</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7782</v>
+        <v>8047</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>125222</v>
+        <v>125487</v>
       </c>
     </row>
     <row customHeight="1" ht="26" r="5">
@@ -534,19 +534,19 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11700</v>
+        <v>15660</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>15660</v>
+        <v>11480</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11480</v>
+        <v>7950</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>233370</v>
+        <v>241320</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3655950</v>
+        <v>3663900</v>
       </c>
     </row>
     <row customHeight="1" ht="26" r="6">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>390</v>
+        <v>522</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>522</v>
+        <v>384</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>384</v>
+        <v>265</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>7782</v>
+        <v>8047</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>125413</v>
+        <v>125678</v>
       </c>
     </row>
     <row customHeight="1" ht="26" r="9">
@@ -634,19 +634,19 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>11700</v>
+        <v>15660</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>15660</v>
+        <v>11480</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>11480</v>
+        <v>7950</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>233370</v>
+        <v>241320</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>3661856</v>
+        <v>3669806</v>
       </c>
     </row>
     <row r="11">
